--- a/docs/ValueSet-consent-exchange-category-codes.xlsx
+++ b/docs/ValueSet-consent-exchange-category-codes.xlsx
@@ -7,15 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Exclude from Consent Category" r:id="rId5" sheetId="3"/>
-    <sheet name="Exclude from LOINC" r:id="rId6" sheetId="4"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Exclude #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Exclude #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-09T03:19:35-05:00</t>
+    <t>2024-09-11T16:17:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -68,7 +68,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>MITRE (https://www.mitre.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -111,9 +117,6 @@
   </si>
   <si>
     <t>polst</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -265,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -365,20 +368,28 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -400,12 +411,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -427,56 +438,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -498,44 +509,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
